--- a/Mock_Data/Projects_extras.xlsx
+++ b/Mock_Data/Projects_extras.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d83216ade753ec4a/Desktop/Mock_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\ΕΜΠ\ΡΟΗ Λ\ΒΑΣΕΙΣ ΔΕΔΟΜΕΝΩΝ\ΕΡΓΑΣΙΑ\DB_Project_ELIDEK_2022\Mock_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="568" documentId="11_58548E4D1432E76E3AFDB80C3A2C459EA88790F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5CB219C-4E9E-4629-8D00-885F0279D2B9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68D9328-E820-4CCB-826B-F4A240A5DDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="930" windowWidth="31695" windowHeight="20265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7380" yWindow="1155" windowWidth="27420" windowHeight="17745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>project_id</t>
   </si>
@@ -64,15 +64,6 @@
     <t>Quisque erat eros, viverra eget, congue eget, semper rutrum, nulla. Nunc purus. Phasellus in felis.</t>
   </si>
   <si>
-    <t>Phasellus id sapien in sapien iaculis congue. Vivamus metus arcu, adipiscing molestie, hendrerit at, vulputate vitae, nisl. Aenean lectus. Pellentesque eget nunc.</t>
-  </si>
-  <si>
-    <t>Nam ultrices, libero non mattis pulvinar, nulla pede ullamcorper augue, a suscipit nulla elit ac nulla. Sed vel enim sit amet nunc viverra dapibus.</t>
-  </si>
-  <si>
-    <t>Suspendisse potenti. Nullam porttitor lacus at turpis.</t>
-  </si>
-  <si>
     <t>Vivamus in felis eu sapien cursus vestibulum.</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>Pellentesque ultrices mattis odio.</t>
   </si>
   <si>
-    <t>Duis aliquam convallis nunc. Proin at turpis a pede posuere nonummy. Integer non velit. Donec diam neque, vestibulum eget, vulputate ut, ultrices vel, augue.</t>
-  </si>
-  <si>
     <t>In hac habitasse platea dictumst. Etiam faucibus cursus urna.</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>Curabitur at ipsum ac tellus semper interdum.</t>
   </si>
   <si>
-    <t>Morbi non quam nec dui luctus rutrum.</t>
-  </si>
-  <si>
     <t>Morbi porttitor lorem id ligula. Suspendisse ornare consequat lectus. In est risus, auctor sed, tristique in, tempus sit amet, sem.</t>
   </si>
   <si>
@@ -191,21 +176,6 @@
   </si>
   <si>
     <t>Loren</t>
-  </si>
-  <si>
-    <t>Baba</t>
-  </si>
-  <si>
-    <t>Loststring</t>
-  </si>
-  <si>
-    <t>Wrapping</t>
-  </si>
-  <si>
-    <t>Tacos</t>
-  </si>
-  <si>
-    <t>Macrosoftex</t>
   </si>
 </sst>
 </file>
@@ -586,8 +556,8 @@
   <sheetPr codeName="Φύλλο1"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -623,19 +593,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -643,10 +613,10 @@
         <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4">
         <v>43851</v>
@@ -678,7 +648,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -713,10 +683,10 @@
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4">
         <v>44005</v>
@@ -748,10 +718,10 @@
         <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4">
         <v>44070</v>
@@ -783,10 +753,10 @@
         <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4">
         <v>44094</v>
@@ -818,7 +788,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -853,10 +823,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4">
         <v>43989</v>
@@ -888,10 +858,10 @@
         <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4">
         <v>43953</v>
@@ -923,10 +893,10 @@
         <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4">
         <v>43853</v>
@@ -958,10 +928,10 @@
         <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4">
         <v>44134</v>
@@ -993,10 +963,10 @@
         <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4">
         <v>44544</v>
@@ -1028,7 +998,7 @@
         <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
@@ -1063,10 +1033,10 @@
         <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14" s="4">
         <v>44211</v>
@@ -1098,10 +1068,10 @@
         <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4">
         <v>44334</v>
@@ -1133,10 +1103,10 @@
         <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4">
         <v>44539</v>
@@ -1168,10 +1138,10 @@
         <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="4">
         <v>44514</v>
@@ -1203,10 +1173,10 @@
         <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4">
         <v>44242</v>
@@ -1238,10 +1208,10 @@
         <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4">
         <v>44555</v>
@@ -1269,179 +1239,24 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>79</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4">
-        <v>44525</v>
-      </c>
-      <c r="E20" s="4">
-        <v>45008</v>
-      </c>
-      <c r="F20" s="2">
-        <v>718206.55</v>
-      </c>
-      <c r="G20" s="1">
-        <v>483</v>
-      </c>
-      <c r="H20" s="1">
-        <v>12</v>
-      </c>
-      <c r="I20" s="3">
-        <v>29</v>
-      </c>
-      <c r="J20" s="3">
-        <v>40</v>
-      </c>
-      <c r="K20" s="1">
-        <v>95</v>
-      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>80</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="4">
-        <v>44450</v>
-      </c>
-      <c r="E21" s="4">
-        <v>45219</v>
-      </c>
-      <c r="F21" s="2">
-        <v>516530.37</v>
-      </c>
-      <c r="G21" s="1">
-        <v>769</v>
-      </c>
-      <c r="H21" s="1">
-        <v>20</v>
-      </c>
-      <c r="I21" s="3">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
-        <v>40</v>
-      </c>
-      <c r="K21" s="1">
-        <v>64</v>
-      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>81</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="4">
-        <v>44508</v>
-      </c>
-      <c r="E22" s="4">
-        <v>44962</v>
-      </c>
-      <c r="F22" s="2">
-        <v>785747.93</v>
-      </c>
-      <c r="G22" s="1">
-        <v>454</v>
-      </c>
-      <c r="H22" s="1">
-        <v>16</v>
-      </c>
-      <c r="I22" s="3">
-        <v>13</v>
-      </c>
-      <c r="J22" s="3">
-        <v>40</v>
-      </c>
-      <c r="K22" s="1">
-        <v>51</v>
-      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>82</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="4">
-        <v>44444</v>
-      </c>
-      <c r="E23" s="4">
-        <v>44959</v>
-      </c>
-      <c r="F23" s="2">
-        <v>952130.31</v>
-      </c>
-      <c r="G23" s="1">
-        <v>515</v>
-      </c>
-      <c r="H23" s="1">
-        <v>15</v>
-      </c>
-      <c r="I23" s="3">
-        <v>19</v>
-      </c>
-      <c r="J23" s="3">
-        <v>40</v>
-      </c>
-      <c r="K23" s="1">
-        <v>87</v>
-      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>83</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="4">
-        <v>44477</v>
-      </c>
-      <c r="E24" s="4">
-        <v>45072</v>
-      </c>
-      <c r="F24" s="2">
-        <v>508597.7</v>
-      </c>
-      <c r="G24" s="1">
-        <v>595</v>
-      </c>
-      <c r="H24" s="1">
-        <v>2</v>
-      </c>
-      <c r="I24" s="3">
-        <v>14</v>
-      </c>
-      <c r="J24" s="3">
-        <v>40</v>
-      </c>
-      <c r="K24" s="1">
-        <v>2</v>
-      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K24">
